--- a/diary/2017-4-07(L).xlsx
+++ b/diary/2017-4-07(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>P</t>
   </si>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>小黃瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +457,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -625,14 +621,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1">
-        <v>25</v>
-      </c>
-    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
@@ -659,7 +647,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(E2:E14)</f>
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
